--- a/medicine/Sexualité et sexologie/Baiser_amoureux/Baiser_amoureux.xlsx
+++ b/medicine/Sexualité et sexologie/Baiser_amoureux/Baiser_amoureux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baiser amoureux, baiser sexuel, aussi appelé baiser avec la langue, baiser profond, French kiss, cataglottisme, baiser florentin ou familièrement, une pelle, un patin ou une galoche, est un baiser érotique qui consiste en une exploration partagée et variée des lèvres, de la langue et de la bouche tout entière[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baiser amoureux, baiser sexuel, aussi appelé baiser avec la langue, baiser profond, French kiss, cataglottisme, baiser florentin ou familièrement, une pelle, un patin ou une galoche, est un baiser érotique qui consiste en une exploration partagée et variée des lèvres, de la langue et de la bouche tout entière.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Autres appellations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au XIXe siècle, le baiser amoureux était également appelé « baiser florentin »[2]. Cette expression, attribuée à Napoléon Bonaparte, a été abandonnée depuis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au XIXe siècle, le baiser amoureux était également appelé « baiser florentin ». Cette expression, attribuée à Napoléon Bonaparte, a été abandonnée depuis.
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Baiser érotique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baiser avec la langue est une activité érotique hautement valorisée dans les sociétés occidentales, à tel point que le baiser est la seule activité sexuelle qui peut être pratiquée en public.
 Au cinéma, le baiser est même fréquemment diffusé dans les téléfilms, mais aussi dans les médias et reproduit sous diverses formes artistiques (cf. entre autres le « Baiser » de Rodin ou le « Psyché …» de Canova, ci-contre).
 Le baiser lingual est souvent le premier échange physique intime entre deux partenaires. Dans la culture occidentale, il est un préliminaire généralement réalisé avant les activités génitales. Le baiser consiste en une exploration partagée et variée des lèvres, de la langue et de la bouche tout entière, avec de simples contacts ou des mordillements, accompagnés ou non de mouvements de la langue.
-La proximité des visages et des regards échangés favorise les émotions chaleureuses entre les partenaires[1].
+La proximité des visages et des regards échangés favorise les émotions chaleureuses entre les partenaires.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baiser lingual érotique est observé chez les hominidés. Mais c'est une activité qui est surtout pratiquée par les juvéniles (équivalent aux préadolescents chez les humains) et qui est moins fréquente que les activités génitales (seulement 6 % des activités sexuelles quotidiennes observées au zoo de San Diego, avec une fréquence moyenne d'une fois toutes les 4 heures[4]).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baiser lingual érotique est observé chez les hominidés. Mais c'est une activité qui est surtout pratiquée par les juvéniles (équivalent aux préadolescents chez les humains) et qui est moins fréquente que les activités génitales (seulement 6 % des activités sexuelles quotidiennes observées au zoo de San Diego, avec une fréquence moyenne d'une fois toutes les 4 heures).
 </t>
         </is>
       </c>
@@ -607,10 +625,12 @@
           <t>Ethnologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez Homo sapiens, le baiser érotique avec la langue n’est pas une activité universelle. Il n’est pas pratiqué dans plusieurs sociétés (Adaman, Balinais, Chamorros, Chewas, Lepchas, Manus, Sirionos, Thongas, Tinguians). À la place du baiser, les Tinguians approchent les lèvres près de la figure de leur partenaire et inhalent soudainement. Ailleurs, les personnes sucent les lèvres et la langue du partenaire pour que la salive s’écoule d’une bouche à l’autre (Kwakiutl, Trobriandais, Alorais, Truckais). Chez les Lapps, le baiser est réalisé simultanément avec la bouche et le nez. Dans d'autres sociétés, on considère le baiser comme dégoûtant, car les fluides corporels sont souvent considérés comme contaminants, ou impurs ou répugnants. Quand les Thonga ont observé les premiers Occidentaux s'embrasser, ils ont eu des réactions de moqueries en disant que les Occidentaux mangeaient leurs saletés. Enfin, certaines sociétés expliquent que la bouche est « naturellement » prévue pour l’alimentation, et en fonction de cette analyse considèrent le baiser comme une activité sexuelle « anormale » et « contre-nature »[5],[6].
-En raison de l'influence de la culture occidentale (missionnaires, films, scolarisation…), la pratique du baiser lingual s'est répandu dans ces sociétés. Au début, ce sont surtout les jeunes qui ont adopté les pratiques occidentales, tandis que les personnes plus âgées « n'arrivaient pas à comprendre » pour quelles raisons les jeunes s'embrassaient[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez Homo sapiens, le baiser érotique avec la langue n’est pas une activité universelle. Il n’est pas pratiqué dans plusieurs sociétés (Adaman, Balinais, Chamorros, Chewas, Lepchas, Manus, Sirionos, Thongas, Tinguians). À la place du baiser, les Tinguians approchent les lèvres près de la figure de leur partenaire et inhalent soudainement. Ailleurs, les personnes sucent les lèvres et la langue du partenaire pour que la salive s’écoule d’une bouche à l’autre (Kwakiutl, Trobriandais, Alorais, Truckais). Chez les Lapps, le baiser est réalisé simultanément avec la bouche et le nez. Dans d'autres sociétés, on considère le baiser comme dégoûtant, car les fluides corporels sont souvent considérés comme contaminants, ou impurs ou répugnants. Quand les Thonga ont observé les premiers Occidentaux s'embrasser, ils ont eu des réactions de moqueries en disant que les Occidentaux mangeaient leurs saletés. Enfin, certaines sociétés expliquent que la bouche est « naturellement » prévue pour l’alimentation, et en fonction de cette analyse considèrent le baiser comme une activité sexuelle « anormale » et « contre-nature »,.
+En raison de l'influence de la culture occidentale (missionnaires, films, scolarisation…), la pratique du baiser lingual s'est répandu dans ces sociétés. Au début, ce sont surtout les jeunes qui ont adopté les pratiques occidentales, tandis que les personnes plus âgées « n'arrivaient pas à comprendre » pour quelles raisons les jeunes s'embrassaient.
 </t>
         </is>
       </c>
@@ -639,9 +659,11 @@
           <t>Neurobiologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le baiser permet de réduire les niveaux de cortisol, l'hormone de stress et d'augmenter la production d'hormone de l'attachement, l'ocytocine[8]. Néanmoins la plupart de ces effets, comme la diminution de l’anxiété et la formation de l’attachement, ne sont pas spécifiques au baiser. Toutes les activités érotiques produisent apparemment des effets similaires.[citation nécessaire] D'après le biologiste Thierry Lodé ce type de baiser, qui induit l'échange de salive, donne des informations sur le système immunitaire du partenaire et produirait un évitement des personnes qui ont une trop grande parenté génétique. En effet, d'un point de vue évolutif, le partenaire sexuel doit disposer d'un système immunitaire différent pour être attrayant et apporter la diversité génétique qui favorisera la santé de la progéniture[9]. L'identification des odeurs salivaires modifiée par le système immunitaire, permettrait de déclencher le désir, le consentement amoureux, et enfin l'acte sexuel proprement dit[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le baiser permet de réduire les niveaux de cortisol, l'hormone de stress et d'augmenter la production d'hormone de l'attachement, l'ocytocine. Néanmoins la plupart de ces effets, comme la diminution de l’anxiété et la formation de l’attachement, ne sont pas spécifiques au baiser. Toutes les activités érotiques produisent apparemment des effets similaires.[citation nécessaire] D'après le biologiste Thierry Lodé ce type de baiser, qui induit l'échange de salive, donne des informations sur le système immunitaire du partenaire et produirait un évitement des personnes qui ont une trop grande parenté génétique. En effet, d'un point de vue évolutif, le partenaire sexuel doit disposer d'un système immunitaire différent pour être attrayant et apporter la diversité génétique qui favorisera la santé de la progéniture. L'identification des odeurs salivaires modifiée par le système immunitaire, permettrait de déclencher le désir, le consentement amoureux, et enfin l'acte sexuel proprement dit.
 </t>
         </is>
       </c>
@@ -670,11 +692,13 @@
           <t>Microbiote buccal et maladies</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au cours d'un baiser, pas moins de 80 millions de bactéries sont échangées en une dizaine de secondes par le mélange des salives, mais l'effet est transitoire, chaque individu retrouvant rapidement la composition de son microbiote salivaire[11],[12].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au cours d'un baiser, pas moins de 80 millions de bactéries sont échangées en une dizaine de secondes par le mélange des salives, mais l'effet est transitoire, chaque individu retrouvant rapidement la composition de son microbiote salivaire,.
 La plupart des maladies sexuellement transmissibles ne se transmettent pas par le baiser.
-Néanmoins, un échange d'environ 250 types de bactéries et d'éventuels virus se produit, et il y a donc un risque de mononucléose infectieuse, d'herpès buccal, de grippe, de méningite, d'hépatite B[13] etc.
+Néanmoins, un échange d'environ 250 types de bactéries et d'éventuels virus se produit, et il y a donc un risque de mononucléose infectieuse, d'herpès buccal, de grippe, de méningite, d'hépatite B etc.
 </t>
         </is>
       </c>
@@ -705,12 +729,52 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au cinéma
-En anglais, on emploie l'expression French kiss[14] et en espagnol le Beso francés (« baiser français »)[15]. Il est fréquemment employé dans le cinéma pour exprimer le désir sexuel entre deux amoureux.[réf. souhaitée]
+          <t>Au cinéma</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En anglais, on emploie l'expression French kiss et en espagnol le Beso francés (« baiser français »). Il est fréquemment employé dans le cinéma pour exprimer le désir sexuel entre deux amoureux.[réf. souhaitée]
 French Kiss est un film de 1995 avec Meg Ryan, Kevin Kline et Jean Reno.
 Deep Kiss est une série de films pornographiques japonais montrant des lesbiennes entièrement dédiées au French kissing.
-The Art of Kissing est une série de films pornographiques américains datant de 2005 à 2008 montrant l'art d'embrasser entre filles.
-En musique
+The Art of Kissing est une série de films pornographiques américains datant de 2005 à 2008 montrant l'art d'embrasser entre filles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Représentation médiatique et artistique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En musique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 French Kiss, groupe féminin japonais de J-pop.
 French Kiss, album d'Estelle Desanges.
 French Kiss (en), album de Bob Welch
@@ -724,10 +788,79 @@
 French Kiss, musique EDM de l'artiste Trottle sur le label Monstercat.
 French Kiss, musique de Black M.
 Bésame mucho, paroles et musique de Consuelo Velázquez
-En photographie
-Le Baiser de l'Hôtel de ville de Robert Doisneau.
-À la télévision
-En 2008[16], une émission de télé-réalité française, diffusée sur la chaîne NRJ12, et intitulée French Kiss, met en scène 5 candidats français se retrouvant à Miami, et dont le but du jeu est d'être élu meilleur French lover. Au gré des épreuves, les candidats doivent accumuler les French kiss[16] dans tous les lieux possibles (plages, discothèques, rues, bars…). Les épreuves délivrent des immunités d'élimination, des conforts, des dollars (chaque French kiss crédite de 5$ US le candidat). Les dollars permettent de 'survivre' en ville (tant sur le plan de l'hygiène (dentifrice, savon, etc.) que sur le plan alimentaire ou matériel) et donc d'augmenter ses chances d'arriver au bout de l'aventure[réf. nécessaire].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Représentation médiatique et artistique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En photographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le Baiser de l'Hôtel de ville de Robert Doisneau.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Baiser_amoureux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Représentation médiatique et artistique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>À la télévision</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2008, une émission de télé-réalité française, diffusée sur la chaîne NRJ12, et intitulée French Kiss, met en scène 5 candidats français se retrouvant à Miami, et dont le but du jeu est d'être élu meilleur French lover. Au gré des épreuves, les candidats doivent accumuler les French kiss dans tous les lieux possibles (plages, discothèques, rues, bars…). Les épreuves délivrent des immunités d'élimination, des conforts, des dollars (chaque French kiss crédite de 5$ US le candidat). Les dollars permettent de 'survivre' en ville (tant sur le plan de l'hygiène (dentifrice, savon, etc.) que sur le plan alimentaire ou matériel) et donc d'augmenter ses chances d'arriver au bout de l'aventure[réf. nécessaire].
 </t>
         </is>
       </c>
